--- a/biology/Botanique/Rapatea_paludosa/Rapatea_paludosa.xlsx
+++ b/biology/Botanique/Rapatea_paludosa/Rapatea_paludosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rapatea paludosa est une espèce herbacée sud-américaine appartenant à la famille des Rapateaceae. Il s'agit de l'espèce type du genre Rapatea. 
-Elle est connue sous le nom de ka'i kuluwa (Wayãpi) en Guyane[3], et de Yellow lily (Créole), Katuburi (Arawak) au Guyana[4].
+Elle est connue sous le nom de ka'i kuluwa (Wayãpi) en Guyane, et de Yellow lily (Créole), Katuburi (Arawak) au Guyana.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rapatea paludosa est une plante herbacée pouvant atteindre 0,8–1,5 m de haut. Ses feuilles lisses, sont larges de (2–)4–11,5 cm et ont leur base progressivement rétrécie jusqu'à la gaine foliaire longue de 15–25 cm. L'inflorescence est portée sur un pédoncule plat, strié, ailé, portant une courte pubescence brune, est long de 25-40 cm, large de 5 mm à sa base, est de 10-20 mm au sommet. L'inflorescence globuleuse, large de 3 à 8 cm, se forme entre deux bractées involucrales presque égales, largement ovales à cordés, larges de 4 à 6 cm, longues de 5–25 cm, et atténuées à l'apex. À l'aisselle des deux bractées lancéolées et acuminées, se forment de nombreux pédicelles longs de 1 à 1,5 cm, portant les épillets de floraux. Les 8-12 bractéoles, sont densément imbriquées, de couleur paille, rigides, ovales, mucronées, augmentant progressivement de longueur : les supérieures de 1 cm de long, forment ensemble un involucre étroit, ellipsoïde, aigu[5]. Les sépales connés à la base en un tube membraneux long de 2 mm, forment une coque, lancéolées, aiguës, très rigides, longue d'environ 13 mm, à 7 nervures, jaunâtres et charnus au sommet. Les pétales sont jaunes, membraneux, connés à leur base, obtus, légèrement plus longs que les sépales. Les étamines portent des filets longs de 3 mm et des anthères de longues 6 mm, et se terminent par un appendice brun, long de 2 mm, semblable à une cuillère à manche géniculé, le creux de la cuillère étant le pore de l'anthère. L'ovaire est obovoïde, trigone, rétréci jusqu'à sa base. Le style est filiforme à son extrémité. Le capsule obovale, trigone, de longue de 5 mm, est dans sa partie inférieure hyaline, membraneuse, à 3 loges, et dans sa moitié supérieure loculicide, déhiscente par 3 valves coriaces, jaunâtres, avec des septa ligneux, se dissolvant à partir de l'axe central et attachés aux valves. On trouve dans chaque alvéole une graine oblongue, longue de 4 mm, mesurant 2,5 mm de diamètre, ridées transversalement[6]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rapatea paludosa est une plante herbacée pouvant atteindre 0,8–1,5 m de haut. Ses feuilles lisses, sont larges de (2–)4–11,5 cm et ont leur base progressivement rétrécie jusqu'à la gaine foliaire longue de 15–25 cm. L'inflorescence est portée sur un pédoncule plat, strié, ailé, portant une courte pubescence brune, est long de 25-40 cm, large de 5 mm à sa base, est de 10-20 mm au sommet. L'inflorescence globuleuse, large de 3 à 8 cm, se forme entre deux bractées involucrales presque égales, largement ovales à cordés, larges de 4 à 6 cm, longues de 5–25 cm, et atténuées à l'apex. À l'aisselle des deux bractées lancéolées et acuminées, se forment de nombreux pédicelles longs de 1 à 1,5 cm, portant les épillets de floraux. Les 8-12 bractéoles, sont densément imbriquées, de couleur paille, rigides, ovales, mucronées, augmentant progressivement de longueur : les supérieures de 1 cm de long, forment ensemble un involucre étroit, ellipsoïde, aigu. Les sépales connés à la base en un tube membraneux long de 2 mm, forment une coque, lancéolées, aiguës, très rigides, longue d'environ 13 mm, à 7 nervures, jaunâtres et charnus au sommet. Les pétales sont jaunes, membraneux, connés à leur base, obtus, légèrement plus longs que les sépales. Les étamines portent des filets longs de 3 mm et des anthères de longues 6 mm, et se terminent par un appendice brun, long de 2 mm, semblable à une cuillère à manche géniculé, le creux de la cuillère étant le pore de l'anthère. L'ovaire est obovoïde, trigone, rétréci jusqu'à sa base. Le style est filiforme à son extrémité. Le capsule obovale, trigone, de longue de 5 mm, est dans sa partie inférieure hyaline, membraneuse, à 3 loges, et dans sa moitié supérieure loculicide, déhiscente par 3 valves coriaces, jaunâtres, avec des septa ligneux, se dissolvant à partir de l'axe central et attachés aux valves. On trouve dans chaque alvéole une graine oblongue, longue de 4 mm, mesurant 2,5 mm de diamètre, ridées transversalement. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Rapatea paludosa du Panama, au Brésil (bassin amazonien, Bahia), en passant par la Colombie (Valle et sud-est), Trinidad, le Venezuela, le Guyana, le Suriname, la Guyane et le Pérou[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Rapatea paludosa du Panama, au Brésil (bassin amazonien, Bahia), en passant par la Colombie (Valle et sud-est), Trinidad, le Venezuela, le Guyana, le Suriname, la Guyane et le Pérou.
 C'est l'espèce du genre Rapatea la plus commune et la plus répandue.
 </t>
         </is>
@@ -575,9 +591,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette grande herbe pousse à 50–500(–1 500) m d'altitude, sur les sols marécageux des bas-fonds humides et des ruisseaux de sous-bois de la forêt ancienne[5],[3]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette grande herbe pousse à 50–500(–1 500) m d'altitude, sur les sols marécageux des bas-fonds humides et des ruisseaux de sous-bois de la forêt ancienne,. 
 </t>
         </is>
       </c>
@@ -606,10 +624,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les jeunes feuilles de Rapatea paludosa servent à confectionner un remède Wayãpi contre l'essoufflement lié aux affections pulmonaires[3].
-Au nord-ouest du Guyana, les Amérindiens en font une préparation destinée à prévenir la calvitie[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les jeunes feuilles de Rapatea paludosa servent à confectionner un remède Wayãpi contre l'essoufflement lié aux affections pulmonaires.
+Au nord-ouest du Guyana, les Amérindiens en font une préparation destinée à prévenir la calvitie.
 </t>
         </is>
       </c>
@@ -638,9 +658,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante[1] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante : 
 « RAPATEA (paludoſa). (Tabula 118.) 
 Planta perennis, radice fibroſâ., lignoſâ. Folia longiſſima, anguſta, acuta, glabra, ſtriata, integerrima, baſi vaginantia, mutuó ſe amplexantia, ſuprà vaginam anguſtata. Scapi plures, nudi, bipedales, ſtriati, compreſſi, marginati, verſus ſummitatem ſenſim latiores, ex axillis foliorum radicalium orti. Flores in involucro collecti, pedunculati ; pedunculo squamulis imbricato, infra baſim calicis. 
 Corolla flava. 
